--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H2">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I2">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J2">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N2">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O2">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P2">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q2">
-        <v>244.2262138628107</v>
+        <v>41.600802831336</v>
       </c>
       <c r="R2">
-        <v>2198.035924765296</v>
+        <v>374.407225482024</v>
       </c>
       <c r="S2">
-        <v>0.06427833009583069</v>
+        <v>0.03780947265362465</v>
       </c>
       <c r="T2">
-        <v>0.06427833009583069</v>
+        <v>0.03780947265362464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H3">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I3">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J3">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.086304</v>
       </c>
       <c r="O3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P3">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q3">
-        <v>106.308124916224</v>
+        <v>43.62646263782401</v>
       </c>
       <c r="R3">
-        <v>956.773124246016</v>
+        <v>392.638163740416</v>
       </c>
       <c r="S3">
-        <v>0.02797942381841257</v>
+        <v>0.03965052195667473</v>
       </c>
       <c r="T3">
-        <v>0.02797942381841257</v>
+        <v>0.03965052195667471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>13.24090133333333</v>
+        <v>5.433768000000001</v>
       </c>
       <c r="H4">
-        <v>39.722704</v>
+        <v>16.301304</v>
       </c>
       <c r="I4">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="J4">
-        <v>0.1214410874295642</v>
+        <v>0.1262505823713576</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N4">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O4">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P4">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q4">
-        <v>110.882392895344</v>
+        <v>53.683044988944</v>
       </c>
       <c r="R4">
-        <v>997.9415360580961</v>
+        <v>483.147404900496</v>
       </c>
       <c r="S4">
-        <v>0.02918333351532098</v>
+        <v>0.04879058776105826</v>
       </c>
       <c r="T4">
-        <v>0.02918333351532098</v>
+        <v>0.04879058776105825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H5">
         <v>15.811511</v>
       </c>
       <c r="I5">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J5">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N5">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O5">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P5">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q5">
-        <v>97.21355995755437</v>
+        <v>40.35085485041566</v>
       </c>
       <c r="R5">
-        <v>874.9220396179893</v>
+        <v>363.157693653741</v>
       </c>
       <c r="S5">
-        <v>0.02558580914763149</v>
+        <v>0.03667343991419247</v>
       </c>
       <c r="T5">
-        <v>0.02558580914763149</v>
+        <v>0.03667343991419246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H6">
         <v>15.811511</v>
       </c>
       <c r="I6">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J6">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>24.086304</v>
       </c>
       <c r="O6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P6">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q6">
         <v>42.315651182816</v>
@@ -818,10 +818,10 @@
         <v>380.840860645344</v>
       </c>
       <c r="S6">
-        <v>0.01113713123553957</v>
+        <v>0.03845917259586741</v>
       </c>
       <c r="T6">
-        <v>0.01113713123553957</v>
+        <v>0.0384591725958674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.270503666666667</v>
+        <v>5.270503666666666</v>
       </c>
       <c r="H7">
         <v>15.811511</v>
       </c>
       <c r="I7">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="J7">
-        <v>0.0483392844994771</v>
+        <v>0.1224572262391479</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N7">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O7">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P7">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q7">
-        <v>44.13642573202101</v>
+        <v>52.07007098059044</v>
       </c>
       <c r="R7">
-        <v>397.2278315881891</v>
+        <v>468.630638825314</v>
       </c>
       <c r="S7">
-        <v>0.01161634411630604</v>
+        <v>0.04732461372908805</v>
       </c>
       <c r="T7">
-        <v>0.01161634411630604</v>
+        <v>0.04732461372908804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H8">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I8">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J8">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.444833</v>
+        <v>7.655977</v>
       </c>
       <c r="N8">
-        <v>55.33449900000001</v>
+        <v>22.967931</v>
       </c>
       <c r="O8">
-        <v>0.529296397589589</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="P8">
-        <v>0.5292963975895891</v>
+        <v>0.2994795900616967</v>
       </c>
       <c r="Q8">
-        <v>1669.627641929364</v>
+        <v>247.5581318966443</v>
       </c>
       <c r="R8">
-        <v>15026.64877736428</v>
+        <v>2228.023187069799</v>
       </c>
       <c r="S8">
-        <v>0.4394322583461269</v>
+        <v>0.2249966774938796</v>
       </c>
       <c r="T8">
-        <v>0.4394322583461269</v>
+        <v>0.2249966774938796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H9">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I9">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J9">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>24.086304</v>
       </c>
       <c r="O9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="P9">
-        <v>0.2303950368909585</v>
+        <v>0.3140620915319453</v>
       </c>
       <c r="Q9">
-        <v>726.7646708125758</v>
+        <v>259.612431896224</v>
       </c>
       <c r="R9">
-        <v>6540.882037313182</v>
+        <v>2336.511887066016</v>
       </c>
       <c r="S9">
-        <v>0.1912784818370064</v>
+        <v>0.2359523969794032</v>
       </c>
       <c r="T9">
-        <v>0.1912784818370064</v>
+        <v>0.2359523969794032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.52007366666665</v>
+        <v>32.33527633333333</v>
       </c>
       <c r="H10">
-        <v>271.560221</v>
+        <v>97.00582900000001</v>
       </c>
       <c r="I10">
-        <v>0.8302196280709587</v>
+        <v>0.7512921913894945</v>
       </c>
       <c r="J10">
-        <v>0.8302196280709586</v>
+        <v>0.7512921913894944</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.374233</v>
+        <v>9.879524666666667</v>
       </c>
       <c r="N10">
-        <v>25.122699</v>
+        <v>29.638574</v>
       </c>
       <c r="O10">
-        <v>0.2403085655194523</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="P10">
-        <v>0.2403085655194524</v>
+        <v>0.386458318406358</v>
       </c>
       <c r="Q10">
-        <v>758.0361880618309</v>
+        <v>319.4571601386496</v>
       </c>
       <c r="R10">
-        <v>6822.325692556478</v>
+        <v>2875.114441247846</v>
       </c>
       <c r="S10">
-        <v>0.1995088878878253</v>
+        <v>0.2903431169162117</v>
       </c>
       <c r="T10">
-        <v>0.1995088878878253</v>
+        <v>0.2903431169162117</v>
       </c>
     </row>
   </sheetData>
